--- a/static/content/index.xlsx
+++ b/static/content/index.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sybra\Scripts\LOTW\static\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04836F96-F3B8-43F0-9785-3B9BB236EFA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9BC7FA-562A-4BE5-BA3F-0202A687AFA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{9CC2A888-9C0D-4EE7-BCDF-8B896332EE3C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{9CC2A888-9C0D-4EE7-BCDF-8B896332EE3C}"/>
   </bookViews>
   <sheets>
     <sheet name="the-power-of-scripture" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="115">
   <si>
     <t>Nr.</t>
   </si>
@@ -307,6 +307,84 @@
   </si>
   <si>
     <t>devil-god-salvation.html</t>
+  </si>
+  <si>
+    <t>How To Identify God's Voice</t>
+  </si>
+  <si>
+    <t>gods-voice.html</t>
+  </si>
+  <si>
+    <t>Wine Consumption in the Ancient World</t>
+  </si>
+  <si>
+    <t>ancient-wine.html</t>
+  </si>
+  <si>
+    <t>Why were High Places and Green Trees Often Associated with Idolatry?</t>
+  </si>
+  <si>
+    <t>nature-idolatry.html</t>
+  </si>
+  <si>
+    <t>Genesis 38: The Story of Judah and Tamar</t>
+  </si>
+  <si>
+    <t>judah-and-tamar.html</t>
+  </si>
+  <si>
+    <t>women-curse-redeemed.html</t>
+  </si>
+  <si>
+    <t>Genesis 3:16 - Did Christ’s Sacrifice Redeem Women’s Curse?</t>
+  </si>
+  <si>
+    <t>Genesis 3:16 – What is a Woman's Desire for Her Husband?</t>
+  </si>
+  <si>
+    <t>How Christ’s Redemption Transforms Marriage</t>
+  </si>
+  <si>
+    <t>christ-marriage-redemption.html</t>
+  </si>
+  <si>
+    <t>What Does It Mean to Be Filled with the Holy Spirit?</t>
+  </si>
+  <si>
+    <t>holy-spirit-filled.html</t>
+  </si>
+  <si>
+    <t>women-desire-husband.html</t>
+  </si>
+  <si>
+    <t>Genesis 2: Why Did God Make Humans?</t>
+  </si>
+  <si>
+    <t>human-purpose.html</t>
+  </si>
+  <si>
+    <t>Genesis 14: What Does the Word "Hebrew" Mean in the Bible?</t>
+  </si>
+  <si>
+    <t>hebrew-meaning.html</t>
+  </si>
+  <si>
+    <t>Genesis 39: What was the Accusation of Potiphar’s Wife’s Against Joseph?</t>
+  </si>
+  <si>
+    <t>joseph-accusation.html</t>
+  </si>
+  <si>
+    <t>Genesis 40: Joseph’s Interpretations While in Prison</t>
+  </si>
+  <si>
+    <t>joseph-prison.html</t>
+  </si>
+  <si>
+    <t>Genesis 41: Joseph’s Rise from Prison to Power</t>
+  </si>
+  <si>
+    <t>joseph-power.html</t>
   </si>
 </sst>
 </file>
@@ -794,13 +872,15 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -841,11 +921,38 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45623</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="F4" s="3"/>
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45622</v>
+      </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -854,10 +961,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFFDAB5-FFCE-423D-B1FF-A436389D5DD4}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,17 +1033,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>45707</v>
+        <v>45725</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>105</v>
+      </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -944,13 +1050,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>45710</v>
+        <v>45725</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -961,13 +1067,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>45711</v>
+        <v>45725</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -978,16 +1084,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>45713</v>
+        <v>45707</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D7" s="2"/>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -995,13 +1102,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>45716</v>
+        <v>45727</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -1012,16 +1119,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>45716</v>
+        <v>45710</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -1032,13 +1136,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>45716</v>
+        <v>45711</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
         <v>28</v>
@@ -1049,16 +1153,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>45720</v>
+        <v>45713</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>29</v>
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1066,13 +1170,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>45721</v>
+        <v>45716</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
         <v>28</v>
@@ -1083,13 +1187,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>45722</v>
+        <v>45716</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
         <v>28</v>
@@ -1100,13 +1207,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>45722</v>
+        <v>45716</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
         <v>28</v>
@@ -1117,16 +1224,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>45723</v>
+        <v>45720</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1134,13 +1241,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>45724</v>
+        <v>45721</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
         <v>28</v>
@@ -1151,24 +1258,160 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
+        <v>45722</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>45722</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45723</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
         <v>45724</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C20" t="s">
         <v>66</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E20" t="s">
         <v>67</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45724</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45724</v>
+      </c>
+      <c r="C22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>45727</v>
+      </c>
+      <c r="C23" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45728</v>
+      </c>
+      <c r="C24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>45728</v>
+      </c>
+      <c r="C25" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{8D043C53-FBAE-4545-91EF-C8895DFEC905}"/>
-    <hyperlink ref="F11" r:id="rId2" display="https://biblestudyvisuals.com/?product=bible-timeline-chart-with-world-history" xr:uid="{6DEFA703-CEEB-4F2B-8D2D-047F150E7697}"/>
-  </hyperlinks>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F21">
+    <sortCondition ref="C3:C21"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1176,8 +1419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA432C69-F003-4B5F-981E-CBBB76206C4B}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1448,7 +1691,58 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>45587</v>
+      </c>
+      <c r="C16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>45725</v>
+      </c>
+      <c r="C17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>45725</v>
+      </c>
+      <c r="C18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" s="2"/>
     </row>
   </sheetData>

--- a/static/content/index.xlsx
+++ b/static/content/index.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28708"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sybra\Scripts\LOTW\static\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9BC7FA-562A-4BE5-BA3F-0202A687AFA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CFB6CF-84AB-4621-8DBF-B8F59EB48005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{9CC2A888-9C0D-4EE7-BCDF-8B896332EE3C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{9CC2A888-9C0D-4EE7-BCDF-8B896332EE3C}"/>
   </bookViews>
   <sheets>
-    <sheet name="the-power-of-scripture" sheetId="2" r:id="rId1"/>
-    <sheet name="curious-history" sheetId="3" r:id="rId2"/>
-    <sheet name="genesis" sheetId="4" r:id="rId3"/>
-    <sheet name="theological-questions" sheetId="5" r:id="rId4"/>
-    <sheet name="islam-in-context" sheetId="6" r:id="rId5"/>
+    <sheet name="genesis" sheetId="4" r:id="rId1"/>
+    <sheet name="exodus" sheetId="9" r:id="rId2"/>
+    <sheet name="the-power-of-scripture" sheetId="2" r:id="rId3"/>
+    <sheet name="curious-history" sheetId="3" r:id="rId4"/>
+    <sheet name="theological-questions" sheetId="5" r:id="rId5"/>
+    <sheet name="islam-in-context" sheetId="6" r:id="rId6"/>
+    <sheet name="taboo-for-now" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="161">
   <si>
     <t>Nr.</t>
   </si>
@@ -57,15 +59,9 @@
     <t>Filename</t>
   </si>
   <si>
-    <t>It allows us to communicate with God, share our hopes and fears, and receive His guidance.</t>
-  </si>
-  <si>
     <t>prayer.html</t>
   </si>
   <si>
-    <t>The Gen 27:40 prophecy suggests that there would come a time when Esau’s descendants would break free from Israelite control.</t>
-  </si>
-  <si>
     <t>esau-yoke.html</t>
   </si>
   <si>
@@ -192,9 +188,6 @@
     <t>kings-and-women.html</t>
   </si>
   <si>
-    <t>Genesis 16: Ishmael’s Descendants in Modern History and Biblical Prophecy</t>
-  </si>
-  <si>
     <t>ishmaels-descendants.html</t>
   </si>
   <si>
@@ -339,9 +332,6 @@
     <t>Genesis 3:16 - Did Christ’s Sacrifice Redeem Women’s Curse?</t>
   </si>
   <si>
-    <t>Genesis 3:16 – What is a Woman's Desire for Her Husband?</t>
-  </si>
-  <si>
     <t>How Christ’s Redemption Transforms Marriage</t>
   </si>
   <si>
@@ -369,15 +359,9 @@
     <t>hebrew-meaning.html</t>
   </si>
   <si>
-    <t>Genesis 39: What was the Accusation of Potiphar’s Wife’s Against Joseph?</t>
-  </si>
-  <si>
     <t>joseph-accusation.html</t>
   </si>
   <si>
-    <t>Genesis 40: Joseph’s Interpretations While in Prison</t>
-  </si>
-  <si>
     <t>joseph-prison.html</t>
   </si>
   <si>
@@ -385,6 +369,162 @@
   </si>
   <si>
     <t>joseph-power.html</t>
+  </si>
+  <si>
+    <t>Genesis 42–45: The Significance of Judah’s Repentance</t>
+  </si>
+  <si>
+    <t>judah-repentance.html</t>
+  </si>
+  <si>
+    <t>Genesis 44: Did Joseph Practice Divination?</t>
+  </si>
+  <si>
+    <t>joseph-divination.html</t>
+  </si>
+  <si>
+    <t>Carry Burdens vs Do Not Stand Surety: A Paradox?</t>
+  </si>
+  <si>
+    <t>carry-burdens-surety.html</t>
+  </si>
+  <si>
+    <t>Genesis 16: Ishmael’s Descendants in History</t>
+  </si>
+  <si>
+    <t>Genesis 3:16 - What is a Woman's Desire for Her Husband?</t>
+  </si>
+  <si>
+    <t>Genesis 39: What was Potiphar’s Wife’s Accusation Against Joseph?</t>
+  </si>
+  <si>
+    <t>Genesis 40: Joseph’s Dream Interpretations in Prison</t>
+  </si>
+  <si>
+    <t>Genesis 46: Who Were the 70 That Came To Egypt?</t>
+  </si>
+  <si>
+    <t>jacob-70.html</t>
+  </si>
+  <si>
+    <t>Genesis 47: Joseph and the Birth of Egypt’s Tax System</t>
+  </si>
+  <si>
+    <t>joseph-tax.html</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>Delete this topic. What does the Quran say about the role of a husband? Or marriage altogether ? WHAT IS THE REASoning for just calling out the wife? That makes no sense- so out of place.</t>
+  </si>
+  <si>
+    <t>Delete this whole topic. What is the benefit here?  I have not seen a topic on what the biblt says about unfatithful men. Not one topic on this. Also im stuggling to understand why this was added. Like its just negative, nothing inspirational</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>Remove topic and focus only on marriage. That’s what is important to God.</t>
+  </si>
+  <si>
+    <t>Also such an imbalance here - nothing mentioned on the curse of men. Again not inspiring, although Christ was brought into the picture in this topic it still should be balanced with men too. I suggest that if you talk about women you talk about men too- God created them, men and women - to now single out women topics in this mix is careless. Perhaps marriage is more inspiring than this.</t>
+  </si>
+  <si>
+    <t>Park topic- wait before you bring this information back. Also maybe get more reseouces/references</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Possibly the one picture with the most information or text- why, this is not inspirational and in the text the nothing that actually points to God which is quite shocking and sad. You can delete this whole topic too. </t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Genesis 48: Why Was Joseph Not a Tribe of Israel?</t>
+  </si>
+  <si>
+    <t>joseph-israel-tribe.html</t>
+  </si>
+  <si>
+    <t>Genesis 49: Jacob's Final Blessings and Prophetic Declarations</t>
+  </si>
+  <si>
+    <t>jacob-blessings-rebukes.html</t>
+  </si>
+  <si>
+    <t>Exodus 3: Moses' Encounter with God</t>
+  </si>
+  <si>
+    <t>moses-burning-bush.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genesis 50: The Challenge of Accepting Forgiveness </t>
+  </si>
+  <si>
+    <t>joseph-forgiveness.html</t>
+  </si>
+  <si>
+    <t>moses-excuses.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exodus 4: Excuses and God’s Reponses </t>
+  </si>
+  <si>
+    <t>moses-circumcision.html</t>
+  </si>
+  <si>
+    <t>Exodus 4: Why Did God Want to Kill Moses?</t>
+  </si>
+  <si>
+    <t>Exodus 2: Significant Moments in Moses' Life</t>
+  </si>
+  <si>
+    <t>moses-life.html</t>
+  </si>
+  <si>
+    <t>gershom-zipporah.html</t>
+  </si>
+  <si>
+    <t>Exodus 2: What happened to Gershom and Zipporah?</t>
+  </si>
+  <si>
+    <t>midian-worship.html</t>
+  </si>
+  <si>
+    <t>Exodus 2: Who Did the Priest of Midian Worship?</t>
+  </si>
+  <si>
+    <t>church-structure.html</t>
+  </si>
+  <si>
+    <t>A Bible-Based Model for Church Structure</t>
+  </si>
+  <si>
+    <t>Exodus 7–12: The Significance of the 10 Plagues</t>
+  </si>
+  <si>
+    <t>egypt-plagues.html</t>
+  </si>
+  <si>
+    <t>Exodus 1–14: Evidence for the Biblical Pharaoh</t>
+  </si>
+  <si>
+    <t>exodus-pharaoh.html</t>
+  </si>
+  <si>
+    <t>hardened-heart.html</t>
+  </si>
+  <si>
+    <t>Exodus 4: The Meaning of a Hardened Heart</t>
+  </si>
+  <si>
+    <t>Is God Waiting on Us, or Are We Waiting on Him?</t>
+  </si>
+  <si>
+    <t>waiting-on-god.html</t>
   </si>
 </sst>
 </file>
@@ -414,15 +554,27 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -430,18 +582,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -776,11 +948,753 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D26157-DF53-455E-A824-00BB2CCC2F64}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFFDAB5-FFCE-423D-B1FF-A436389D5DD4}">
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F5"/>
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45716</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45704</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45725</v>
+      </c>
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45725</v>
+      </c>
+      <c r="C5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45707</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45727</v>
+      </c>
+      <c r="C7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45710</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45711</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45713</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45716</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45716</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45716</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45721</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>45722</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>45722</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>45723</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>45724</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45724</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45724</v>
+      </c>
+      <c r="C20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45727</v>
+      </c>
+      <c r="C21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45728</v>
+      </c>
+      <c r="C22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>45728</v>
+      </c>
+      <c r="C23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45729</v>
+      </c>
+      <c r="C24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>45729</v>
+      </c>
+      <c r="C25" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>45730</v>
+      </c>
+      <c r="C26" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>45730</v>
+      </c>
+      <c r="C27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>45732</v>
+      </c>
+      <c r="C28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E28" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>45734</v>
+      </c>
+      <c r="C29" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" t="s">
+        <v>136</v>
+      </c>
+      <c r="F29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>45735</v>
+      </c>
+      <c r="C30" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" t="s">
+        <v>140</v>
+      </c>
+      <c r="F30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F21">
+    <sortCondition ref="C3:C21"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B07A7FB-BED7-48AE-9A4B-65CFD0E1541C}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45740</v>
+      </c>
+      <c r="C2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45736</v>
+      </c>
+      <c r="C3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45736</v>
+      </c>
+      <c r="C4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45736</v>
+      </c>
+      <c r="C5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45735</v>
+      </c>
+      <c r="C6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45736</v>
+      </c>
+      <c r="C7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45736</v>
+      </c>
+      <c r="C8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45739</v>
+      </c>
+      <c r="C9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45737</v>
+      </c>
+      <c r="C10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D26157-DF53-455E-A824-00BB2CCC2F64}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,7 +1722,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -819,13 +1733,13 @@
         <v>45711</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -836,13 +1750,13 @@
         <v>45721</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -853,13 +1767,30 @@
         <v>45014</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45665</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -867,18 +1798,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{945C6EC8-B566-4FF7-AB33-4083FAD45CD9}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.7109375" customWidth="1"/>
     <col min="4" max="4" width="28.85546875" customWidth="1"/>
     <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -900,7 +1831,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -911,13 +1842,13 @@
         <v>45722</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -928,13 +1859,16 @@
         <v>45623</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>89</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -945,13 +1879,13 @@
         <v>45622</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -959,22 +1893,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFFDAB5-FFCE-423D-B1FF-A436389D5DD4}">
-  <dimension ref="A1:F25"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA432C69-F003-4B5F-981E-CBBB76206C4B}">
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -991,27 +1928,33 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>45716</v>
+        <v>45701</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1019,238 +1962,245 @@
         <v>45704</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>45725</v>
+        <v>45704</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>45725</v>
+        <v>45689</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>45725</v>
+        <v>45698</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>45707</v>
+        <v>45710</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>69</v>
+      </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>45727</v>
+        <v>45670</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>45710</v>
+        <v>45718</v>
       </c>
       <c r="C9" t="s">
         <v>74</v>
       </c>
+      <c r="D9" s="2"/>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="J9"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>45711</v>
+        <v>45666</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>45713</v>
+        <v>45666</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>45716</v>
+        <v>45656</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>45716</v>
+        <v>45643</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="J13"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>45716</v>
+        <v>45587</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>45720</v>
+        <v>45725</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>96</v>
+      </c>
+      <c r="D15" t="s">
+        <v>97</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>45721</v>
+        <v>45725</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1258,16 +2208,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>45722</v>
+        <v>45729</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1275,16 +2225,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>45722</v>
+        <v>45736</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1292,458 +2242,17 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>45723</v>
+        <v>45740</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>159</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1">
-        <v>45724</v>
-      </c>
-      <c r="C20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1">
-        <v>45724</v>
-      </c>
-      <c r="C21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1">
-        <v>45724</v>
-      </c>
-      <c r="C22" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1">
-        <v>45727</v>
-      </c>
-      <c r="C23" t="s">
-        <v>109</v>
-      </c>
-      <c r="E23" t="s">
-        <v>110</v>
-      </c>
-      <c r="F23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1">
-        <v>45728</v>
-      </c>
-      <c r="C24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" t="s">
-        <v>112</v>
-      </c>
-      <c r="F24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1">
-        <v>45728</v>
-      </c>
-      <c r="C25" t="s">
-        <v>113</v>
-      </c>
-      <c r="E25" t="s">
-        <v>114</v>
-      </c>
-      <c r="F25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F21">
-    <sortCondition ref="C3:C21"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA432C69-F003-4B5F-981E-CBBB76206C4B}">
-  <dimension ref="A1:F20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>45701</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>45704</v>
-      </c>
-      <c r="C3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>45704</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>45689</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>45698</v>
-      </c>
-      <c r="C6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>45698</v>
-      </c>
-      <c r="C7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>45710</v>
-      </c>
-      <c r="C8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>45670</v>
-      </c>
-      <c r="C9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>45718</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>45666</v>
-      </c>
-      <c r="C11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>45666</v>
-      </c>
-      <c r="C12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>45665</v>
-      </c>
-      <c r="C13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>45656</v>
-      </c>
-      <c r="C14" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>45643</v>
-      </c>
-      <c r="C15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>45587</v>
-      </c>
-      <c r="C16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
-        <v>45725</v>
-      </c>
-      <c r="C17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
-        <v>45725</v>
-      </c>
-      <c r="C18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" t="s">
-        <v>103</v>
-      </c>
-      <c r="F18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="2"/>
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F18">
@@ -1754,12 +2263,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C71771-5E0B-44D6-9F99-AAADC1B22322}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1767,29 +2276,37 @@
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="62.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="50.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1797,16 +2314,16 @@
         <v>45711</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1814,16 +2331,16 @@
         <v>45711</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1831,31 +2348,158 @@
         <v>45711</v>
       </c>
       <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D86534-80E6-4B7D-A459-274A6317CAE4}">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="50.5703125" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45711</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
         <v>55</v>
       </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45698</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45720</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
       <c r="E4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>45711</v>
+        <v>45725</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
